--- a/artfynd/A 14927-2023 artfynd.xlsx
+++ b/artfynd/A 14927-2023 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,53 +680,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108756678</v>
+        <v>108660302</v>
       </c>
       <c r="B2" t="n">
-        <v>89356</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>102612</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spillning</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Granskog Marsbäcken, Vb</t>
+          <t>Marsbäcken, väster Kullavägen, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>752565.6343214267</v>
+        <v>752587</v>
       </c>
       <c r="R2" t="n">
-        <v>7093700.47435124</v>
+        <v>7093727</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Hittades på två olika ställen</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,34 +782,8 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Äldre barrblandskog, K-skog. Mossmattor, översilningsmark delvis, början av Marsbäckens avrinningsområde.</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Äldre gran, på undersidan torra grenar</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies # Äldre gran, på undersidan torra grenar</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -821,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112313574</v>
+        <v>108756678</v>
       </c>
       <c r="B3" t="n">
-        <v>55682</v>
+        <v>89356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,53 +816,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100138</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Trollberget-Kullaheden, Vb</t>
+          <t>Granskog Marsbäcken, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>752439</v>
+        <v>752565.6343214267</v>
       </c>
       <c r="R3" t="n">
-        <v>7093709</v>
+        <v>7093700.47435124</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -907,7 +873,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -917,7 +883,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -925,19 +891,40 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Stöttes</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Äldre barrblandskog, K-skog. Mossmattor, översilningsmark delvis, början av Marsbäckens avrinningsområde.</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Äldre gran, på undersidan torra grenar</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies # Äldre gran, på undersidan torra grenar</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -954,10 +941,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112313576</v>
+        <v>112313574</v>
       </c>
       <c r="B4" t="n">
-        <v>56606</v>
+        <v>55682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -966,25 +953,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>100138</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -992,21 +979,28 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752714</v>
+        <v>752439</v>
       </c>
       <c r="R4" t="n">
-        <v>7093570</v>
+        <v>7093709</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1036,9 +1030,24 @@
           <t>2023-09-24</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Stöttes</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1065,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112313655</v>
+        <v>112313576</v>
       </c>
       <c r="B5" t="n">
-        <v>90878</v>
+        <v>56606</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,31 +1090,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1114,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752820</v>
+        <v>752714</v>
       </c>
       <c r="R5" t="n">
-        <v>7093493</v>
+        <v>7093570</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1176,14 +1185,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112313590</v>
+        <v>112313655</v>
       </c>
       <c r="B6" t="n">
-        <v>57281</v>
+        <v>90878</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1192,27 +1201,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1221,10 +1234,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752543</v>
+        <v>752820</v>
       </c>
       <c r="R6" t="n">
-        <v>7093684</v>
+        <v>7093493</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,50 +1296,55 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112313702</v>
+        <v>112313590</v>
       </c>
       <c r="B7" t="n">
-        <v>90855</v>
+        <v>57281</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752827</v>
+        <v>752543</v>
       </c>
       <c r="R7" t="n">
-        <v>7093488</v>
+        <v>7093684</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1403,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>119440822</v>
+        <v>112313702</v>
       </c>
       <c r="B8" t="n">
-        <v>91840</v>
+        <v>90855</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1421,14 +1439,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Trollberget med omnejd, Kulla, Vb</t>
+          <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752849</v>
+        <v>752827</v>
       </c>
       <c r="R8" t="n">
-        <v>7093484</v>
+        <v>7093488</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1455,12 +1473,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1487,53 +1505,53 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>129224522</v>
+        <v>119440822</v>
       </c>
       <c r="B9" t="n">
-        <v>57727</v>
+        <v>91840</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kåddisheden, Vb</t>
+          <t>Trollberget med omnejd, Kulla, Vb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752490</v>
+        <v>752849</v>
       </c>
       <c r="R9" t="n">
-        <v>7093754</v>
+        <v>7093484</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1557,12 +1575,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1573,26 +1591,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Tallhögstubbe</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Tallhögstubbe</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1609,27 +1607,27 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>129224538</v>
+        <v>129224522</v>
       </c>
       <c r="B10" t="n">
-        <v>58100</v>
+        <v>57727</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103015</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1637,14 +1635,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1653,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752678</v>
+        <v>752490</v>
       </c>
       <c r="R10" t="n">
-        <v>7093588</v>
+        <v>7093754</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1691,11 +1685,6 @@
           <t>2025-10-19</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>13:50</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1704,6 +1693,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Tallhögstubbe</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Tallhögstubbe</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1720,27 +1729,27 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>129224541</v>
+        <v>129224538</v>
       </c>
       <c r="B11" t="n">
-        <v>56911</v>
+        <v>58100</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102612</v>
+        <v>103015</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1750,27 +1759,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>födosökande</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kåddisheden, Vb</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752559</v>
+        <v>752678</v>
       </c>
       <c r="R11" t="n">
-        <v>7093660</v>
+        <v>7093588</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1800,24 +1806,14 @@
           <t>2025-10-19</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2025-10-19</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Stöttes, flög iväg</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,6 +1837,130 @@
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>129224541</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56911</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Kåddisheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>752559</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7093660</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Stöttes, flög iväg</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
